--- a/TestCases/test_webdata.xlsx
+++ b/TestCases/test_webdata.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="t_接" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="1t_接2" sheetId="4" r:id="rId2"/>
+    <sheet name="t_接" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>conf_key</t>
   </si>
@@ -54,7 +55,7 @@
     <t>method</t>
   </si>
   <si>
-    <t>input_text</t>
+    <t>parameter</t>
   </si>
   <si>
     <t>return_values</t>
@@ -66,34 +67,40 @@
     <t>capture</t>
   </si>
   <si>
+    <t>标题1</t>
+  </si>
+  <si>
+    <t>baidu_page</t>
+  </si>
+  <si>
+    <t>get_news_text</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>首页检索1</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>assert_equal</t>
+  </si>
+  <si>
+    <t>新1闻</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
-    <t>baidu_page</t>
-  </si>
-  <si>
-    <t>get_news_text</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>assert_equal</t>
-  </si>
-  <si>
-    <t>${news}</t>
+    <t>首页检索</t>
   </si>
   <si>
     <t>新闻</t>
-  </si>
-  <si>
-    <t>首页检索</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>python</t>
   </si>
   <si>
     <t>input</t>
@@ -191,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,22 +220,104 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFC66D"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF6A8759"/>
-      <name val="BIZ UDGothic"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,19 +330,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -261,60 +351,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,46 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -383,19 +396,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,163 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,8 +608,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +634,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +668,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,41 +702,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -709,137 +722,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,19 +878,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1243,44 +1268,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="18">
         <v>1234567890</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="18">
         <v>410</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1294,10 +1319,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1341,74 +1366,76 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3">
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="5">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
+    <row r="3" s="9" customFormat="1" spans="1:9">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="5" t="s">
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3">
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="5">
+      <c r="I4" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1446,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="8"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
@@ -1440,7 +1467,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1453,7 +1480,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1466,7 +1493,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1479,7 +1506,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1492,7 +1519,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1505,7 +1532,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1518,7 +1545,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1531,7 +1558,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1542,31 +1569,264 @@
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.88888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.66666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:9">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" spans="1:9">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,7 +1835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J15"/>
@@ -1611,19 +1871,19 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>13</v>
@@ -1637,16 +1897,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7"/>
@@ -1662,10 +1922,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="3"/>
@@ -1681,16 +1941,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="7"/>
@@ -1706,13 +1966,13 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
@@ -1728,13 +1988,13 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="7"/>
@@ -1750,13 +2010,13 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="7"/>
@@ -1772,13 +2032,13 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="7"/>
@@ -1794,13 +2054,13 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="7"/>
@@ -1816,13 +2076,13 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7"/>
@@ -1838,13 +2098,13 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="7"/>
@@ -1860,13 +2120,13 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="7"/>
@@ -1882,10 +2142,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
@@ -1904,13 +2164,13 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="7"/>
@@ -1926,10 +2186,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="8">
         <v>402</v>
